--- a/dashboard-ui/src/components/SurveyResults/Survey Delegation Variables - PH2.xlsx
+++ b/dashboard-ui/src/components/SurveyResults/Survey Delegation Variables - PH2.xlsx
@@ -1,32 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE8E6692-8D35-4C73-B8F6-4AF82B5ED91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -177,7 +160,7 @@
     <t>The participant's response to "How much experience did you have with VR Gaming before today?"</t>
   </si>
   <si>
-    <t>X refers to the block number, Y refers to the DM number the participant saw. For Eval 8 and 9, participants saw 4 blocks with 3-4 DMs each (4 in the case of multi-kdma). The following columns describe each page of the survey using this BX_DMY format.</t>
+    <t>X refers to the block number, Y refers to the DM number the participant saw. For Eval 8 and 9, participants saw 4 blocks with 3-4 DMs each (4 in the case of Multi KDMA). The following columns describe each page of the survey using this BX_DMY format.</t>
   </si>
   <si>
     <t>The alignment level of the DM based on the alignment gathered from the participant's text responses</t>
@@ -219,7 +202,7 @@
     <t>The name and alignment value of the third medic being compared in this comparison page</t>
   </si>
   <si>
-    <t>The name and alignment value of the fourth medic being compared in this comparison page - only applies to multi-kdma</t>
+    <t>The name and alignment value of the fourth medic being compared in this comparison page - only applies to Multi KDMA</t>
   </si>
   <si>
     <t>The amount of time the participant spent (Minutes) on the comparison page</t>
@@ -228,7 +211,7 @@
     <t>The alignment of the first two DMs being compared</t>
   </si>
   <si>
-    <t>The response to the first forced choice question (baseline vs aligned, or follow the previous column for multikdma)</t>
+    <t>The response to the first forced choice question (aligned vs baseline, or follow the previous column for Multi KDMA)</t>
   </si>
   <si>
     <t>The response to "Rate your confidence about the delegation decision indicated in the previous question" for the first forced choice</t>
@@ -240,13 +223,13 @@
     <t>The alignment of the second two DMs being compared</t>
   </si>
   <si>
-    <t>The response to the second forced choice question (aligned vs misaligned, or follow the previous column for multikdma)</t>
+    <t>The response to the second forced choice question (aligned vs misaligned, or follow the previous column for Multi KDMA)</t>
   </si>
   <si>
     <t>The response to "Rate your confidence about the delegation decision indicated in the previous question" for the second forced choice question</t>
   </si>
   <si>
-    <t>The alignment of the third two DMs being compared (multikdma only)</t>
+    <t>The alignment of the third two DMs being compared (Multi KDMA only)</t>
   </si>
   <si>
     <t>The response to the third forced choice question (follow the previous column)</t>
@@ -262,6 +245,9 @@
   </si>
   <si>
     <r>
+      <t/>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -274,7 +260,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -294,7 +280,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -314,7 +300,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -334,7 +320,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -372,6 +358,9 @@
   </si>
   <si>
     <r>
+      <t/>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -384,7 +373,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -404,7 +393,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -424,7 +413,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -444,7 +433,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -464,6 +453,9 @@
   </si>
   <si>
     <r>
+      <t/>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -476,7 +468,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -496,7 +488,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -516,7 +508,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -536,7 +528,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -556,6 +548,9 @@
   </si>
   <si>
     <r>
+      <t/>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -568,7 +563,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -588,7 +583,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -608,7 +603,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -628,7 +623,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -648,6 +643,9 @@
   </si>
   <si>
     <r>
+      <t/>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -660,7 +658,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -680,7 +678,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -700,7 +698,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -720,7 +718,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -740,6 +738,9 @@
   </si>
   <si>
     <r>
+      <t/>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -752,7 +753,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -772,7 +773,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -792,7 +793,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -812,7 +813,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -832,6 +833,9 @@
   </si>
   <si>
     <r>
+      <t/>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -844,7 +848,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -864,7 +868,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -884,7 +888,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -904,7 +908,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -926,8 +930,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -943,23 +948,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF212529"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -989,42 +986,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1035,10 +1028,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1076,71 +1069,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1168,7 +1161,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1191,11 +1184,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1204,13 +1197,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1220,7 +1213,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1229,7 +1222,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1238,7 +1231,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1246,10 +1239,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1314,48 +1307,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" style="5" customWidth="1"/>
-    <col min="14" max="16" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.140625" style="5" customWidth="1"/>
-    <col min="27" max="27" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.42578125" style="5" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.7109375" style="5" customWidth="1"/>
-    <col min="33" max="33" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="6" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="6" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="6" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="6" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="6" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="6" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="6" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="6" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="6" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="6" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="6" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="6" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="6" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="6" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="6" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="6" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="6" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="6" width="32.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="46.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="66" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" ht="208.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="222.75" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -1591,7 +1594,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="1" customFormat="1" ht="199.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="133.5" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>74</v>
       </c>
@@ -1617,7 +1620,7 @@
       <c r="M3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="5" t="s">
         <v>80</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -1625,7 +1628,7 @@
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="2" t="s">
         <v>82</v>
       </c>
       <c r="S3" s="2" t="s">

--- a/dashboard-ui/src/components/SurveyResults/Survey Delegation Variables - PH2.xlsx
+++ b/dashboard-ui/src/components/SurveyResults/Survey Delegation Variables - PH2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
   <si>
     <t>Variables</t>
   </si>
@@ -103,6 +103,9 @@
     <t>BX_Compare_FC1</t>
   </si>
   <si>
+    <t>BX_Compare_FC1_Percent</t>
+  </si>
+  <si>
     <t>BX_Compare_FC1_Conf</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>BX_Compare_FC2</t>
   </si>
   <si>
+    <t>BX_Compare_FC2_Percent</t>
+  </si>
+  <si>
     <t>BX_Compare_FC2_Conf</t>
   </si>
   <si>
@@ -127,6 +133,9 @@
     <t>BX_Compare_FC3</t>
   </si>
   <si>
+    <t>BX_Compare_FC3_Percent</t>
+  </si>
+  <si>
     <t>BX_Compare_FC3_Conf</t>
   </si>
   <si>
@@ -214,6 +223,9 @@
     <t>The response to the first forced choice question (aligned vs baseline, or follow the previous column for Multi KDMA)</t>
   </si>
   <si>
+    <t>The response to ""For a set of future patients, you can delegate the patients to either or both of these decision-makers. In this scenario, either of these decision makers could handle 100% of this task load in a timely manner and it is not more or less efficient to divide the work between them. How would you allocate the patients between these two decision makers?" for the first forced choice</t>
+  </si>
+  <si>
     <t>The response to "Rate your confidence about the delegation decision indicated in the previous question" for the first forced choice</t>
   </si>
   <si>
@@ -226,6 +238,9 @@
     <t>The response to the second forced choice question (aligned vs misaligned, or follow the previous column for Multi KDMA)</t>
   </si>
   <si>
+    <t>The response to ""For a set of future patients, you can delegate the patients to either or both of these decision-makers. In this scenario, either of these decision makers could handle 100% of this task load in a timely manner and it is not more or less efficient to divide the work between them. How would you allocate the patients between these two decision makers?" for the second forced choice</t>
+  </si>
+  <si>
     <t>The response to "Rate your confidence about the delegation decision indicated in the previous question" for the second forced choice question</t>
   </si>
   <si>
@@ -235,13 +250,16 @@
     <t>The response to the third forced choice question (follow the previous column)</t>
   </si>
   <si>
+    <t>The response to ""For a set of future patients, you can delegate the patients to either or both of these decision-makers. In this scenario, either of these decision makers could handle 100% of this task load in a timely manner and it is not more or less efficient to divide the work between them. How would you allocate the patients between these two decision makers?" for the third forced choice</t>
+  </si>
+  <si>
     <t>The response to "Rate your confidence about the delegation decision indicated in the previous question" for the third forced choice question</t>
   </si>
   <si>
     <t>Levels</t>
   </si>
   <si>
-    <t>6,7</t>
+    <t>6, 7, 8</t>
   </si>
   <si>
     <r>
@@ -345,10 +363,10 @@
     <t>aligned, baseline, misaligned, high-affiliation-low-merit, low-affiliation-high-merit, low-affiliation-low-merit, high-affiliation-high-merit</t>
   </si>
   <si>
-    <t>Affiliation Focus (AF), Merit Focus (MF), Personal Safety (PS), Search vs. Stay (SS), and Affiliation Focus / Merit Focus (AF-MF)</t>
-  </si>
-  <si>
-    <t>For single attribute: 0.0 - 1.0. For multi-attribute: low/low, low/high, high/low, high/high</t>
+    <t>Affiliation Focus (AF), Merit Focus (MF), Personal Safety (PS), Search vs. Stay (SS), Personal Safety / Affiliation Focus (PS-AF), PS, AF (Combined), and Affiliation Focus / Merit Focus (AF-MF)</t>
+  </si>
+  <si>
+    <t>For single attribute: 0.0 - 1.0. For MF/AF multi-attribute and PS/AF Combined: low/low, low/high, high/low, high/high. For PS-AF multi-attribute: Target 1, Target 2, Target 3, Target 4.</t>
   </si>
   <si>
     <t>Medic-LN, where L is a letter and N is a number</t>
@@ -735,6 +753,13 @@
       </rPr>
       <t xml:space="preserve"> 5 - Strongly Agree</t>
     </r>
+  </si>
+  <si>
+    <t>DM1 100%,
+                    DM1 75% / DM2 25%`,
+                    DM1 50% / DM2 50%`,
+                    DM1 25% / DM2 75%,
+                    DM2 100%</t>
   </si>
   <si>
     <r>
@@ -932,7 +957,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -943,12 +968,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -986,7 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -994,13 +1013,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1034,10 +1050,10 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -1311,54 +1327,57 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="6" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="6" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="6" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="6" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="6" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="6" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="6" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="6" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="6" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="6" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="6" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="6" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="5" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="5" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="5" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="5" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="5" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="5" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="5" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="5" width="24.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="5" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="5" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="5" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="5" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="5" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="5" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="5" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="5" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="5" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="5" width="32.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="66" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="73.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1377,13 +1396,13 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1407,7 +1426,7 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
@@ -1476,172 +1495,190 @@
       <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="222.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="235.5" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="AJ2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AK2" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="AL2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="133.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="141" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P3" s="2"/>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="2"/>
       <c r="R3" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1651,21 +1688,30 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE3" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="AK3" s="2"/>
-      <c r="AL3" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
+      <c r="AN3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dashboard-ui/src/components/SurveyResults/Survey Delegation Variables - PH2.xlsx
+++ b/dashboard-ui/src/components/SurveyResults/Survey Delegation Variables - PH2.xlsx
@@ -259,7 +259,7 @@
     <t>Levels</t>
   </si>
   <si>
-    <t>6, 7, 8</t>
+    <t>6, 7, 8, 9</t>
   </si>
   <si>
     <r>
@@ -363,7 +363,7 @@
     <t>aligned, baseline, misaligned, high-affiliation-low-merit, low-affiliation-high-merit, low-affiliation-low-merit, high-affiliation-high-merit</t>
   </si>
   <si>
-    <t>Affiliation Focus (AF), Merit Focus (MF), Personal Safety (PS), Search vs. Stay (SS), Personal Safety / Affiliation Focus (PS-AF), PS, AF (Combined), and Affiliation Focus / Merit Focus (AF-MF)</t>
+    <t>Moral Judgement (MJ), Ingroup Bias (IO), Perceived Quantity of Lives Saved (VOL), Affiliation Focus (AF), Merit Focus (MF), Personal Safety (PS), Search vs. Stay (SS), Personal Safety / Affiliation Focus (PS-AF), PS, AF (Combined), and Affiliation Focus / Merit Focus (AF-MF)</t>
   </si>
   <si>
     <t>For single attribute: 0.0 - 1.0. For MF/AF multi-attribute and PS/AF Combined: low/low, low/high, high/low, high/high. For PS-AF multi-attribute: Target 1, Target 2, Target 3, Target 4.</t>
@@ -1005,7 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1021,9 +1021,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1339,17 +1336,17 @@
     <col min="4" max="4" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="5" width="19.862142857142857" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
@@ -1631,7 +1628,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="141" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="195" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
